--- a/data.xlsx
+++ b/data.xlsx
@@ -18,14 +18,1413 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="459">
+  <si>
+    <t>Номер вопроса в программе</t>
+  </si>
+  <si>
+    <t>Номер по порядку в теме</t>
+  </si>
+  <si>
+    <t>Краткая суть вопроса</t>
+  </si>
+  <si>
+    <t>Теоретический вопрос</t>
+  </si>
+  <si>
+    <t>Livecoding</t>
+  </si>
+  <si>
+    <t>К какому уровню относится язык программирования Python</t>
+  </si>
+  <si>
+    <t>Какую типизацию имеет язык Python?</t>
+  </si>
+  <si>
+    <t>Объясните, что представляет собой неявная типизация?</t>
+  </si>
+  <si>
+    <t>какие средства в Python существуют, чтобы обойти неявную типизацию, приведите примеры?</t>
+  </si>
+  <si>
+    <t>Объясните, что представляет собой динамическая типизация?</t>
+  </si>
+  <si>
+    <t>Приведите пример динамической типизации?</t>
+  </si>
+  <si>
+    <t>Что означает символ «=»?</t>
+  </si>
+  <si>
+    <t>Как проверить на какую ячейку памяти ссылается переменная?</t>
+  </si>
+  <si>
+    <t>Что такое каскадное присваивание?</t>
+  </si>
+  <si>
+    <t>Как узнать какой тип данных, на которые ссылается переменная?</t>
+  </si>
+  <si>
+    <t>напишите несколько переменных, которые ссылаются на объекты разных типов и проверьте их типы?</t>
+  </si>
+  <si>
+    <t>Что такое сильная типизация?</t>
+  </si>
+  <si>
+    <t>вызовите ошибку из-за сильной типизации?</t>
+  </si>
+  <si>
+    <t>Объекты в ячейки памяти можно изменять?</t>
+  </si>
+  <si>
+    <t>Перечислите изменяемые типы данных Python?</t>
+  </si>
+  <si>
+    <t>напишите примеры изменяемых типов данных и присвойте им переменные</t>
+  </si>
+  <si>
+    <t>Перечислите неизменяемые типы данных Python?</t>
+  </si>
+  <si>
+    <t>напишите примеры неизменяемых типов данных и присвойте им переменные</t>
+  </si>
+  <si>
+    <t>Как называются объекты, которые способны возвращать элементы по одному?</t>
+  </si>
+  <si>
+    <t>перечислите итерируемые объекты</t>
+  </si>
+  <si>
+    <t>В какие типы данных можно передавать любой итерируемый объект?</t>
+  </si>
+  <si>
+    <t>Можно ли производить арифметические операции для разных типов данных в Python?</t>
+  </si>
+  <si>
+    <t>напишите примеры арифметических операций объектов одинаковых типов данных.</t>
+  </si>
+  <si>
+    <t>Перечислите все арифметические операции в Python?</t>
+  </si>
+  <si>
+    <t>приведите примеры всех арифметических операций в Python?</t>
+  </si>
+  <si>
+    <t>Какие операции бывают в Python помимо арифметических?</t>
+  </si>
+  <si>
+    <t>Какие приоритеты выполнения ВСЕХ АРИФМЕТИЧЕСКИХ операций?</t>
+  </si>
+  <si>
+    <t>вычислите 27 ** 1/3</t>
+  </si>
+  <si>
+    <t>Какие приоритеты выполнения ЛОГИЧЕСКИХ операций?</t>
+  </si>
+  <si>
+    <t>Какая разница между «=» и «==»?</t>
+  </si>
+  <si>
+    <t>Как можно округлять числа в Python?</t>
+  </si>
+  <si>
+    <t>приведите примеры округления чисел</t>
+  </si>
+  <si>
+    <t>Что такое целочисленный тип данных?</t>
+  </si>
+  <si>
+    <t>приведите примеры как можно упростить читаемость большого числа типа int</t>
+  </si>
+  <si>
+    <t>Что такое бинарный вид целого числа?</t>
+  </si>
+  <si>
+    <t>представите число 124 в бинарном виде?</t>
+  </si>
+  <si>
+    <t>Для чего иногда нужно представлять целые числа в бинарном виде?</t>
+  </si>
+  <si>
+    <t>покажите любую операцию для бинарного вида целого числа?</t>
+  </si>
+  <si>
+    <t>Какой тип данных соответствует ничему, пустому типу?</t>
+  </si>
+  <si>
+    <t>Какой тип данных соответствует действительному числу из математики?</t>
+  </si>
+  <si>
+    <t>Что такое списки в Python?</t>
+  </si>
+  <si>
+    <t>Что значит упорядоченная коллекция?</t>
+  </si>
+  <si>
+    <t>Что происходит в ячейки памяти, если изменить элементы в списке?</t>
+  </si>
+  <si>
+    <t>Могут ли быть разные типы данных внутри списка?</t>
+  </si>
+  <si>
+    <t>напишите список, у которого элементы - разные типы данных</t>
+  </si>
+  <si>
+    <t>Какая есть функция в Python для ввода данных и какой тип данных она возвращает?</t>
+  </si>
+  <si>
+    <t>Как можно задать список, используя функцию для ввода данных?</t>
+  </si>
+  <si>
+    <t>Произведите замену значения элемента с индексом 1 на 666 в списке num = [1, 2, 4] ?</t>
+  </si>
+  <si>
+    <t>Дан список winter = [-10, -5, -20, -21, -4, -2]. Вывести его элемент, имеющий минимальное значение.</t>
+  </si>
+  <si>
+    <t>Дан список summa = [7, 8, 10]. Найти сумму всех его элементов.</t>
+  </si>
+  <si>
+    <t>Дан список lst = [1, 3, 4, 6]. Произвести срез элементов так, чтобы можно было вывести в консоль список [3, 4].</t>
+  </si>
+  <si>
+    <t>Дан список marks = [2, 3, 4, 5, 3]. С помощью среза заменить элемент со значением «4» на «хорошо», элемент со значением «5» на «отлично». Должно получиться [2, 3, 'хорошо', 'отлично', 3].</t>
+  </si>
+  <si>
+    <t>Что такое конкатенация для списков?</t>
+  </si>
+  <si>
+    <t>приведите пример конкатенация для списков list_1 = ['one', 'two', 'three'] и list_2 = ['one', 2, 3.0]?</t>
+  </si>
+  <si>
+    <t>Как можно преобразовать строку в список и что в этом случае получится?</t>
+  </si>
+  <si>
+    <t>Как добавить элемент в конец списка?</t>
+  </si>
+  <si>
+    <t>Как можно расширить список без конкатенации?</t>
+  </si>
+  <si>
+    <t>Как добавить элемент в список в конкретное место под конкретным индексом?</t>
+  </si>
+  <si>
+    <t>Как удалить элемент из списка с конкретным значением элемента?</t>
+  </si>
+  <si>
+    <t>Что будет если при удалении элемента его нет в списке?</t>
+  </si>
+  <si>
+    <t>Как удалить элемент из списка по значению его индекса?</t>
+  </si>
+  <si>
+    <t>Как произвести поиск и возврат индекса по значению элемента?</t>
+  </si>
+  <si>
+    <t>Как произвести поиск и возврат одинаковых элементов списка?</t>
+  </si>
+  <si>
+    <t>Как производится сортировка элементов списка по возрастанию и убыванию?</t>
+  </si>
+  <si>
+    <t>Как производится инверсия элементов списка?</t>
+  </si>
+  <si>
+    <t>Как скопировать список в другую ячейку памяти?</t>
+  </si>
+  <si>
+    <t>Как удалить все элементы списка?</t>
+  </si>
+  <si>
+    <t>Как из списка создать строку?</t>
+  </si>
+  <si>
+    <t>Как сделать последовательный вызов всех элементов списка?</t>
+  </si>
+  <si>
+    <t>Как с помощью оператора * можно объединить 2 списка?</t>
+  </si>
+  <si>
+    <t>Что такое вложенные списки?</t>
+  </si>
+  <si>
+    <t>приведите пример вложенного списка:</t>
+  </si>
+  <si>
+    <t>Как происходит обращение к элементу вложенного списка?</t>
+  </si>
+  <si>
+    <t>Что такое кортеж?</t>
+  </si>
+  <si>
+    <t>дан список кортежей lt = [('Geeks', 2), ('For', 4), ('geek','6')]. Преобразовать его с список ['Geeks', 2, 'For', 4, 'geek', '6']</t>
+  </si>
+  <si>
+    <t>В чем отличие списка от кортежа?</t>
+  </si>
+  <si>
+    <t>Какая особенность записи кортежей, если мы хотим создать кортеж с одним элементом – числом 1?</t>
+  </si>
+  <si>
+    <t>Как объявляется кортеж?</t>
+  </si>
+  <si>
+    <t>Как производится распаковка кортежа</t>
+  </si>
+  <si>
+    <t>Как узнать число элементов в кортеже?</t>
+  </si>
+  <si>
+    <t>Как обратиться к элементу кортежа по индексу?</t>
+  </si>
+  <si>
+    <t>Как удалить элемент кортежа?</t>
+  </si>
+  <si>
+    <t>Можно ли объединить 2 кортежа в 3ий?</t>
+  </si>
+  <si>
+    <t>Какие типы данных можно превратить в кортеж и как?</t>
+  </si>
+  <si>
+    <t>Допустим, что в кортеже один из элементов – список. Можно ли в этот элемент кортежа добавить элемент?</t>
+  </si>
+  <si>
+    <t>Как посчитать сколько элементов в кортеже с определенным значением</t>
+  </si>
+  <si>
+    <t>Как найти индекс первого элемента со значением в кортеже?</t>
+  </si>
+  <si>
+    <t>Что такое range()?</t>
+  </si>
+  <si>
+    <t>Как сделать список с помощью диапазона range()?</t>
+  </si>
+  <si>
+    <t>Как задать последовательность диапазона range() в обратном порядке?</t>
+  </si>
+  <si>
+    <t>Как использовать * (оператор упаковки и распаковки) для диапазона range?</t>
+  </si>
+  <si>
+    <t>Что такое строковый тип данных?</t>
+  </si>
+  <si>
+    <t>Что такое f-строки?</t>
+  </si>
+  <si>
+    <t>Что такое контакенанция строк?</t>
+  </si>
+  <si>
+    <t>Как можно сделать дублирование строк?</t>
+  </si>
+  <si>
+    <t>Как определить количество символов в строке?</t>
+  </si>
+  <si>
+    <t>Как определить, что одна строка входит в другую без использования алгоритмов (типа КМП)?</t>
+  </si>
+  <si>
+    <t>Как производится сравнение строк?</t>
+  </si>
+  <si>
+    <t>Как узнать числовое значение символа по таблице ASCII?</t>
+  </si>
+  <si>
+    <t>Как сделать срез строк?</t>
+  </si>
+  <si>
+    <t>Как в срезе задать шаг перебора символов?</t>
+  </si>
+  <si>
+    <t>Как инвертировать строку с помощью среза?</t>
+  </si>
+  <si>
+    <t>Как обратить строку в множество set()?</t>
+  </si>
+  <si>
+    <t>Как сделать обращение к элементу строки по индексу?</t>
+  </si>
+  <si>
+    <t>Как произвести разделение строки на слова или другие фрагменты текста и сохранить полученное в список list?</t>
+  </si>
+  <si>
+    <t>Как создать строки из списка?</t>
+  </si>
+  <si>
+    <t>Как сделать перевод всех символов из ВЕРХНЕГО РЕГИСТРА в нижний регистр?</t>
+  </si>
+  <si>
+    <t>Как сделать перевод всех символов из нижнего регистра в ВЕРХНИЙ РЕГИСТР?</t>
+  </si>
+  <si>
+    <t>Как сделать первый символ в верхнем регистре, а остальные в нижнем?</t>
+  </si>
+  <si>
+    <t>Как сделать, чтобы первый символ каждого нового слова переведен в верхний регистр, остальные в нижний?</t>
+  </si>
+  <si>
+    <t>Как произвести замену слова?</t>
+  </si>
+  <si>
+    <t>Как удалить из строки ненужные элементы?</t>
+  </si>
+  <si>
+    <t>Как возвратить число повторений подстроки в строке?</t>
+  </si>
+  <si>
+    <t>Как проверить из чего состоит строка: только ли из букв или только ли из цифр?</t>
+  </si>
+  <si>
+    <t>Перечислите специальные символы в строках?</t>
+  </si>
+  <si>
+    <t>Что такое r-строки?</t>
+  </si>
+  <si>
+    <t>Что такое множества?</t>
+  </si>
+  <si>
+    <t>Можно ли изменить отдельный элемент в множестве?</t>
+  </si>
+  <si>
+    <t>Что может быть элементами множества?</t>
+  </si>
+  <si>
+    <t>Возможно ли наличие двух и более одинаковых элементов в множестве?</t>
+  </si>
+  <si>
+    <t>Как из списка можно получить множество?</t>
+  </si>
+  <si>
+    <t>Как можно добавить элемент в множество?</t>
+  </si>
+  <si>
+    <t>Какие операции можно производить над множествами?</t>
+  </si>
+  <si>
+    <t>Что такое словари в Python и из чего они состоят?</t>
+  </si>
+  <si>
+    <t>Что может быть ключом в словаре?</t>
+  </si>
+  <si>
+    <t>Что может быть значением в словаре?</t>
+  </si>
+  <si>
+    <t>Как получить значение ключа словаря?</t>
+  </si>
+  <si>
+    <t>Как можно преобразовать ключи словаря в список?</t>
+  </si>
+  <si>
+    <t>Как можно преобразовать ключи словаря во множество?</t>
+  </si>
+  <si>
+    <t>Как можно создать словарь из списка кортежей?</t>
+  </si>
+  <si>
+    <t>Как можно создать словарь с помощью непосредственного присвоения аргументов?</t>
+  </si>
+  <si>
+    <t>Назовите еще один способ создания словаря?</t>
+  </si>
+  <si>
+    <t>Как проверить есть ли ключ в словаре?</t>
+  </si>
+  <si>
+    <t>Как добавить новый элемент в словарь?</t>
+  </si>
+  <si>
+    <t>Как можно объединить 2 словаря?</t>
+  </si>
+  <si>
+    <t>Как удалить элемент из словаря?</t>
+  </si>
+  <si>
+    <t>Как удалить элемент словаря и возвратить значение удаляемого элемента?</t>
+  </si>
+  <si>
+    <t>Как получить все ключи и все значения словаря?</t>
+  </si>
+  <si>
+    <t>Как перебрать по ключам словарь и как по значениям?</t>
+  </si>
+  <si>
+    <t>Как получить из словаря пары ключ-значение и как их перебрать?</t>
+  </si>
+  <si>
+    <t>Как удалить все элементы словаря?</t>
+  </si>
+  <si>
+    <t>Как сделать копию словаря?</t>
+  </si>
+  <si>
+    <t>Как возвратить значение по заданному ключу и если нет ключа он его создаст в словаре это ключ</t>
+  </si>
+  <si>
+    <t>Что такое тернарный условный оператор?</t>
+  </si>
+  <si>
+    <t>Примените тернарный условный оператор для строк?</t>
+  </si>
+  <si>
+    <t>Какие циклы бывают в Python?</t>
+  </si>
+  <si>
+    <t>продемонстрируйте  на любых примерах работу этих циклов, в том числе и совместно, а также работу вложенных циклов</t>
+  </si>
+  <si>
+    <t>Какую роль в цикле while играет ключевое слово else?</t>
+  </si>
+  <si>
+    <t>Что такое итератор в Python. Приведите примеры?</t>
+  </si>
+  <si>
+    <t>Для чего нужны iter() и next()?</t>
+  </si>
+  <si>
+    <t>Как одновременно при переборе элементов списка, кортежа сразу брать индекс и значение элемента. Приведите пример?</t>
+  </si>
+  <si>
+    <t>Как можно сгенерировать список?</t>
+  </si>
+  <si>
+    <t>Приведите пример использования тернарного оператора при генерации списка?</t>
+  </si>
+  <si>
+    <t>Покажите на любом примере генератор словаря?</t>
+  </si>
+  <si>
+    <t>Как сделать обратное преобразование ключей в значения, а значений в ключи?</t>
+  </si>
+  <si>
+    <t>Как сделать генератор множеств?</t>
+  </si>
+  <si>
+    <t>Что такое функция в Python и из какой части программы можно вызвать функцию?</t>
+  </si>
+  <si>
+    <t>Какие типы аргументов могут быть переданы в параметры функции?</t>
+  </si>
+  <si>
+    <t>Приведите примеры позиционных аргументов?</t>
+  </si>
+  <si>
+    <t>Приведите пример именованных аргументов?</t>
+  </si>
+  <si>
+    <t>Какие могут быть параметры у функции?</t>
+  </si>
+  <si>
+    <t>Как задать в функции параметры по-умолчанию?</t>
+  </si>
+  <si>
+    <t>Что делать, если при объявлении функции произвольное число фактических и формальных параметров?</t>
+  </si>
+  <si>
+    <t>Что такое рекурсия?</t>
+  </si>
+  <si>
+    <t>Для чего нужна рекурсия?</t>
+  </si>
+  <si>
+    <t>Что требуется для того, чтобы правильно работала рекурсия?</t>
+  </si>
+  <si>
+    <t>Приведите пример рекурсивной функции?</t>
+  </si>
+  <si>
+    <t>Какое отличие рекурсии от цикла?</t>
+  </si>
+  <si>
+    <t>Каков порядок решения задач на рекурсию?</t>
+  </si>
+  <si>
+    <t>Опишите процесс работы рекурсии в памяти компьютера. Что может произойти, когда не задан крайний случай?</t>
+  </si>
+  <si>
+    <t>Что такое глубина рекурсии?</t>
+  </si>
+  <si>
+    <t>Что такое лямбда-функция. Приведите пример?</t>
+  </si>
+  <si>
+    <t>Нужен ли return в лямбда-функции?</t>
+  </si>
+  <si>
+    <t>Может ли быть в выражении лямбда-функции тернарный оператор?</t>
+  </si>
+  <si>
+    <t>В чем отличие лямбда-функции от обычной функции?</t>
+  </si>
+  <si>
+    <t>Какие ограничения есть у лямбда-функций?</t>
+  </si>
+  <si>
+    <t>Что такое глобальные и локальные переменные, приведите примеры?</t>
+  </si>
+  <si>
+    <t>Объясните суть ключевого слова global. Приведите пример?</t>
+  </si>
+  <si>
+    <t>Объясните суть ключевого слова nonlocal?</t>
+  </si>
+  <si>
+    <t>Дайте определение замыканиям в Python?</t>
+  </si>
+  <si>
+    <t>Объясните механизм замыкания с примерами?</t>
+  </si>
+  <si>
+    <t>Дайте определение декоратора в Python?</t>
+  </si>
+  <si>
+    <t>Напишите в общем виде функцию декоратор и как она работает?</t>
+  </si>
+  <si>
+    <t>Для чего нужны во wrapper args и kwargs?</t>
+  </si>
+  <si>
+    <t>Для чего в декораторах иногда используются параметры?</t>
+  </si>
+  <si>
+    <t>Каким символом может быть вызван декоратор?</t>
+  </si>
+  <si>
+    <t>Что такое @wraps и для чего он нужен?</t>
+  </si>
+  <si>
+    <t>Что такое конструкция if _ _ name _ _ == _ _ main _ _ и для чего она нужна?</t>
+  </si>
+  <si>
+    <t>Что такое пакеты в Python?</t>
+  </si>
+  <si>
+    <t>Что такое файлы в Python?</t>
+  </si>
+  <si>
+    <t>Какая основная функция при работе с файлами?</t>
+  </si>
+  <si>
+    <t>Расскажите о чтении информации из файла, о файловой позиции?</t>
+  </si>
+  <si>
+    <t>Что такое EOF?</t>
+  </si>
+  <si>
+    <t>Как управлять файловой позицией?</t>
+  </si>
+  <si>
+    <t>Как отобразить текущую файловую позицию?</t>
+  </si>
+  <si>
+    <t>Как прочитать только строку?</t>
+  </si>
+  <si>
+    <t>Как сделать перебор строк файла?</t>
+  </si>
+  <si>
+    <t>Как из файла получить список из строк?</t>
+  </si>
+  <si>
+    <t>Что надо сделать с файлом, когда мы с ним перестали работать?</t>
+  </si>
+  <si>
+    <t>Как в Python происходит обработка исключений?</t>
+  </si>
+  <si>
+    <t>Что такое ключевое слово with в Python и где используется?</t>
+  </si>
+  <si>
+    <t>Как создать файл?</t>
+  </si>
+  <si>
+    <t>Как полностью перезаписать файл?</t>
+  </si>
+  <si>
+    <t>Как записать несколько строчек с новой строки?</t>
+  </si>
+  <si>
+    <t>Как добавить в файл новую информация, не перезаписывая его?</t>
+  </si>
+  <si>
+    <t>Что такое бинарный режим работы с файлом?</t>
+  </si>
+  <si>
+    <t>Как создать файл в бинарном режиме?</t>
+  </si>
+  <si>
+    <t>Как прочитать коллекцию из файла .bin?</t>
+  </si>
+  <si>
+    <t>Как в бинарный файл сохранить сразу несколько значений?</t>
+  </si>
+  <si>
+    <t>Как прочитать данные из бинарного файла?</t>
+  </si>
+  <si>
+    <t>Что такое генераторы в Python?</t>
+  </si>
+  <si>
+    <t>Как задать объект генератора?</t>
+  </si>
+  <si>
+    <t>Как получить конкретное значение из генератора?</t>
+  </si>
+  <si>
+    <t>Можно ли использовать цикл for для перебора элементов генератора?</t>
+  </si>
+  <si>
+    <t>Сколько раз можно использовать цикл  for для генератора?</t>
+  </si>
+  <si>
+    <t>Можно ли генератор превратить в другой тип данных?</t>
+  </si>
+  <si>
+    <t>Можно ли использовать функции sum, max, min для генератора?</t>
+  </si>
+  <si>
+    <t>Можно ли использовать функцию len() для подсчета количества элементов в генераторе?</t>
+  </si>
+  <si>
+    <t>Что такое оператор yield и где он используется?</t>
+  </si>
+  <si>
+    <t>Что такое функция map и как она работает?</t>
+  </si>
+  <si>
+    <t>Что такое функция filter и как она работает?</t>
+  </si>
+  <si>
+    <t>Что такое функция zip и как она работает?</t>
+  </si>
+  <si>
+    <t>Что такое функция isinstance и как она работает?</t>
+  </si>
+  <si>
+    <t>Что такое функция all() и как она работает?</t>
+  </si>
+  <si>
+    <t>Что такое функция any() и как она работает?</t>
+  </si>
+  <si>
+    <t>Что такое конструкция match-case и где используется?</t>
+  </si>
+  <si>
+    <t>Что такое мануальное тестирование программы Python?</t>
+  </si>
+  <si>
+    <t>Что такое assert и когда используется?</t>
+  </si>
+  <si>
+    <t>Какие библиотеки в Python существуют для написания автотестов кода?</t>
+  </si>
+  <si>
+    <t>Что такое TDD?</t>
+  </si>
+  <si>
+    <t>Что такое паттерн ААА при написании автотестов?</t>
+  </si>
+  <si>
+    <t>Что такое фикстуры при тестировании?</t>
+  </si>
+  <si>
+    <t>Для чего используется стандартные библиотеки time и datetime. В чем их отличие?</t>
+  </si>
+  <si>
+    <t>Для чего используется стандартная библиотека random?</t>
+  </si>
+  <si>
+    <t>Что такое функция reduce и для чего она используется?</t>
+  </si>
+  <si>
+    <t>Что будет, если одинаковые элементы попадают в множество?</t>
+  </si>
+  <si>
+    <t>Номер файла</t>
+  </si>
+  <si>
+    <t>Уровень языка Python</t>
+  </si>
+  <si>
+    <t>Типизация Python</t>
+  </si>
+  <si>
+    <t>Неявная типизация</t>
+  </si>
+  <si>
+    <t>Динамиечская типизация</t>
+  </si>
+  <si>
+    <t>Символ "="</t>
+  </si>
+  <si>
+    <t>Каскадное присваивание</t>
+  </si>
+  <si>
+    <t>Сильная типизация</t>
+  </si>
+  <si>
+    <t>Тип данных</t>
+  </si>
+  <si>
+    <t>Упорядоченная коллекция</t>
+  </si>
+  <si>
+    <t>Изменение объекта в памяти</t>
+  </si>
+  <si>
+    <t>Изменяемые типы данных</t>
+  </si>
+  <si>
+    <t>Какая особенность есть у изменяемых типов данных Python с точки зрения хеширования?</t>
+  </si>
+  <si>
+    <t>Хеш изменяетых типов данных</t>
+  </si>
+  <si>
+    <t>Неизменяемые типы Python</t>
+  </si>
+  <si>
+    <t>Возвращение элементов по одному</t>
+  </si>
+  <si>
+    <t>Итерируемые типы данных</t>
+  </si>
+  <si>
+    <t>Разные типы данных и арифметика</t>
+  </si>
+  <si>
+    <t>Арифметические операции Python</t>
+  </si>
+  <si>
+    <t>Другие операции Python</t>
+  </si>
+  <si>
+    <t>Приоритет арифметических операций</t>
+  </si>
+  <si>
+    <t>Приоритет логических операций</t>
+  </si>
+  <si>
+    <t>Разница между "=" и "=="</t>
+  </si>
+  <si>
+    <t>Округление чисел</t>
+  </si>
+  <si>
+    <t>Целочисленный тип Python</t>
+  </si>
+  <si>
+    <t>Бинарный вид целого числа</t>
+  </si>
+  <si>
+    <t>Особенность бинарного вида</t>
+  </si>
+  <si>
+    <t>Пустой тип данных Python</t>
+  </si>
+  <si>
+    <t>Действительные числа Python</t>
+  </si>
+  <si>
+    <t>Список Python</t>
+  </si>
+  <si>
+    <t>Изменение элемента в списке</t>
+  </si>
+  <si>
+    <t>Разные типы данных в списке</t>
+  </si>
+  <si>
+    <t>Ввод данных в Python</t>
+  </si>
+  <si>
+    <t>Список из введенных данных</t>
+  </si>
+  <si>
+    <t>Замена значения элемента</t>
+  </si>
+  <si>
+    <t>Минимальное значение элемента списка</t>
+  </si>
+  <si>
+    <t>Сумма всех элементов списка</t>
+  </si>
+  <si>
+    <t>Срез списка</t>
+  </si>
+  <si>
+    <t>Срез с заменой элементов списка</t>
+  </si>
+  <si>
+    <t>Конкатенация списков</t>
+  </si>
+  <si>
+    <t>Строка в список</t>
+  </si>
+  <si>
+    <t>Добавление элемента в конец списка</t>
+  </si>
+  <si>
+    <t>Расширение списка</t>
+  </si>
+  <si>
+    <t>Вставка элемента под конкретным индексом</t>
+  </si>
+  <si>
+    <t>Удаление элемента списка</t>
+  </si>
+  <si>
+    <t>Нет элемента при удалении списка</t>
+  </si>
+  <si>
+    <t>Удаление элемента списка по индексу</t>
+  </si>
+  <si>
+    <t>Поиск и возврат элементов списка</t>
+  </si>
+  <si>
+    <t>Поиск и возврат одинаковых элементов списка</t>
+  </si>
+  <si>
+    <t>Сортировка списка</t>
+  </si>
+  <si>
+    <t>Инверсия списка</t>
+  </si>
+  <si>
+    <t>Копирование списка</t>
+  </si>
+  <si>
+    <t>Удаление элементов списка</t>
+  </si>
+  <si>
+    <t>Список в строку</t>
+  </si>
+  <si>
+    <t>Вызов элементов списка</t>
+  </si>
+  <si>
+    <t>Оператор *</t>
+  </si>
+  <si>
+    <t>Вложенные списки</t>
+  </si>
+  <si>
+    <t>Обращение к элементу вложенного списка</t>
+  </si>
+  <si>
+    <t>Кортеж</t>
+  </si>
+  <si>
+    <t>Отличие кортежа и списка</t>
+  </si>
+  <si>
+    <t>Запись кортежа из 1 элемента</t>
+  </si>
+  <si>
+    <t>Объявление кортежа</t>
+  </si>
+  <si>
+    <t>Распаковка кортежа</t>
+  </si>
+  <si>
+    <t>Число элементов кортежа</t>
+  </si>
+  <si>
+    <t>Обращение к элементу кортежа</t>
+  </si>
+  <si>
+    <t>Удаление элемента кортежа</t>
+  </si>
+  <si>
+    <t>Объединение кортежей</t>
+  </si>
+  <si>
+    <t>Разные типы данных  в кортеж</t>
+  </si>
+  <si>
+    <t>Список внутри кортежа</t>
+  </si>
+  <si>
+    <t>Подсчет количества определенных элеметов кортежа</t>
+  </si>
+  <si>
+    <t>Индекс элемента кортежа</t>
+  </si>
+  <si>
+    <t>Список с помощью range()</t>
+  </si>
+  <si>
+    <t>Определение range()</t>
+  </si>
+  <si>
+    <t>Обратный ход range()</t>
+  </si>
+  <si>
+    <t>Оператор * и range()</t>
+  </si>
+  <si>
+    <t>Строковый тип данных</t>
+  </si>
+  <si>
+    <t>f-строки</t>
+  </si>
+  <si>
+    <t>Контакенанция строк</t>
+  </si>
+  <si>
+    <t>Дублирвоание строк</t>
+  </si>
+  <si>
+    <t>Число символов в строке</t>
+  </si>
+  <si>
+    <t>Подстрока в строке</t>
+  </si>
+  <si>
+    <t>Сравнение строк</t>
+  </si>
+  <si>
+    <t>Строка и ASCII</t>
+  </si>
+  <si>
+    <t>Строка и множество</t>
+  </si>
+  <si>
+    <t>Срез строк</t>
+  </si>
+  <si>
+    <t>Срез с шагом в строке</t>
+  </si>
+  <si>
+    <t>Инверсия строки</t>
+  </si>
+  <si>
+    <t>Обращение к символу строки</t>
+  </si>
+  <si>
+    <t>Строка и список</t>
+  </si>
+  <si>
+    <t>Нижний регистр строки</t>
+  </si>
+  <si>
+    <t>Верхний регистр строки</t>
+  </si>
+  <si>
+    <t>Строка в виде заголовка</t>
+  </si>
+  <si>
+    <t>Строка в виде имени человека</t>
+  </si>
+  <si>
+    <t>Замена слова в строке</t>
+  </si>
+  <si>
+    <t>Удаление элемента строки</t>
+  </si>
+  <si>
+    <t>Число повторений подстроки в строке</t>
+  </si>
+  <si>
+    <t>Анализ состава строки</t>
+  </si>
+  <si>
+    <t>Специальные симводы с строках</t>
+  </si>
+  <si>
+    <t>r-строки</t>
+  </si>
+  <si>
+    <t>Понятия множества</t>
+  </si>
+  <si>
+    <t>Изменение элемента множества</t>
+  </si>
+  <si>
+    <t>Тип данных во множестве</t>
+  </si>
+  <si>
+    <t>Одинаковые элементы множества</t>
+  </si>
+  <si>
+    <t>Механизм работы множества при одинаковых элементах</t>
+  </si>
+  <si>
+    <t>Список в множество</t>
+  </si>
+  <si>
+    <t>Добавление элемента в множество</t>
+  </si>
+  <si>
+    <t>Операции над множествами</t>
+  </si>
+  <si>
+    <t>Словари</t>
+  </si>
+  <si>
+    <t>Тип данных ключа словаря</t>
+  </si>
+  <si>
+    <t>Тип данных значения словаря</t>
+  </si>
+  <si>
+    <t>Полячение значения словаря</t>
+  </si>
+  <si>
+    <t>Ключи словаря в список</t>
+  </si>
+  <si>
+    <t>Ключи словаря в множество</t>
+  </si>
+  <si>
+    <t>Словарь из списка кортежей</t>
+  </si>
+  <si>
+    <t>Создание словаря с присвоением</t>
+  </si>
+  <si>
+    <t>Создание словаря встроенным методом</t>
+  </si>
+  <si>
+    <t>Проверка наличия ключа в словаре</t>
+  </si>
+  <si>
+    <t>Добавление нового элемента в словарь</t>
+  </si>
+  <si>
+    <t>Объединение словарей</t>
+  </si>
+  <si>
+    <t>Удаление ключа словаря</t>
+  </si>
+  <si>
+    <t>Возврат значения удаляемого элемента словаря</t>
+  </si>
+  <si>
+    <t>Получение всех ключей и значений словаря</t>
+  </si>
+  <si>
+    <t>Перебор словаря</t>
+  </si>
+  <si>
+    <t>Перебор одновременно ключей и значений словаря</t>
+  </si>
+  <si>
+    <t>Удаление всех элементов словаря</t>
+  </si>
+  <si>
+    <t>Копия словаря</t>
+  </si>
+  <si>
+    <t>Возврат значения по ключу</t>
+  </si>
+  <si>
+    <t>Тернарный условный оператор</t>
+  </si>
+  <si>
+    <t>Тернарный условный оператор для строки</t>
+  </si>
+  <si>
+    <t>Циклы в Python</t>
+  </si>
+  <si>
+    <t>Оператор else в циклах while и for</t>
+  </si>
+  <si>
+    <t>Понятие итератора</t>
+  </si>
+  <si>
+    <t>Назначение iter() и next()</t>
+  </si>
+  <si>
+    <t>Перебор по индексу и значению одновременно</t>
+  </si>
+  <si>
+    <t>list comprehension</t>
+  </si>
+  <si>
+    <t>Тернарный оператор в list comprehension</t>
+  </si>
+  <si>
+    <t>dict comprehension</t>
+  </si>
+  <si>
+    <t>Ключ в значение, значение в ключ</t>
+  </si>
+  <si>
+    <t>set comprehension</t>
+  </si>
+  <si>
+    <t>Функции в Python</t>
+  </si>
+  <si>
+    <t>Параметры функции и передаваемые аргументы</t>
+  </si>
+  <si>
+    <t>Позиционные аргументы</t>
+  </si>
+  <si>
+    <t>Именованные аргументы</t>
+  </si>
+  <si>
+    <t>Параметры функции</t>
+  </si>
+  <si>
+    <t>Параметры по-умолчанию</t>
+  </si>
+  <si>
+    <t>Призвольное число параметров</t>
+  </si>
+  <si>
+    <t>Рекурсия</t>
+  </si>
+  <si>
+    <t>Назначение рекурсии</t>
+  </si>
+  <si>
+    <t>Условия правильной работы рекурсии</t>
+  </si>
+  <si>
+    <t>Рекурсивная функция</t>
+  </si>
+  <si>
+    <t>Рекурсия и цикл</t>
+  </si>
+  <si>
+    <t>Решение задач на рекурсию</t>
+  </si>
+  <si>
+    <t>Рекурския "под капотом"</t>
+  </si>
+  <si>
+    <t>Глубина рекурсии</t>
+  </si>
+  <si>
+    <t>Лямбда-функции</t>
+  </si>
+  <si>
+    <t>Лямбда-функции и return</t>
+  </si>
+  <si>
+    <t>Тернарный оператор в лямбда-функции</t>
+  </si>
+  <si>
+    <t>Отличие лямбда-функции от обычной</t>
+  </si>
+  <si>
+    <t>Ограничение лямбда-функции</t>
+  </si>
+  <si>
+    <t>Глобальные и локальные переменные</t>
+  </si>
+  <si>
+    <t>Ключевое слово global</t>
+  </si>
+  <si>
+    <t>Механизм замыканий Python</t>
+  </si>
+  <si>
+    <t>Замыкания в Python</t>
+  </si>
+  <si>
+    <t>Ключевое слово nonlocal</t>
+  </si>
+  <si>
+    <t>Декораторы</t>
+  </si>
+  <si>
+    <t>Функция-декоратор</t>
+  </si>
+  <si>
+    <t>args и kwards во wrapper</t>
+  </si>
+  <si>
+    <t>Декораторы с параметрами</t>
+  </si>
+  <si>
+    <t>Syntax sugar и декараторы</t>
+  </si>
+  <si>
+    <t>Понятие @wraps</t>
+  </si>
+  <si>
+    <t>Пакеты в Python</t>
+  </si>
+  <si>
+    <t>Файлы в Python</t>
+  </si>
+  <si>
+    <t>Перебор строк файла</t>
+  </si>
+  <si>
+    <t>Конструкция  if _ _ name _ _ == _ _ main _ _</t>
+  </si>
+  <si>
+    <t>Функция для работы с файлами</t>
+  </si>
+  <si>
+    <t>Файловая позиция</t>
+  </si>
+  <si>
+    <t>Ошибка EOF</t>
+  </si>
+  <si>
+    <t>Управление файловой позицией</t>
+  </si>
+  <si>
+    <t>Отображение файловой позиции</t>
+  </si>
+  <si>
+    <t>Чтение строки файла</t>
+  </si>
+  <si>
+    <t>Список из строк в файле</t>
+  </si>
+  <si>
+    <t>Завершение работы с файлом</t>
+  </si>
+  <si>
+    <t>Обработка исключений</t>
+  </si>
+  <si>
+    <t>Менеджер контекста</t>
+  </si>
+  <si>
+    <t>Создание файлф</t>
+  </si>
+  <si>
+    <t>Перезапись файла</t>
+  </si>
+  <si>
+    <t>Новые строки в файле</t>
+  </si>
+  <si>
+    <t>Новая информация в файле</t>
+  </si>
+  <si>
+    <t>Бинарный режим работы с файлами</t>
+  </si>
+  <si>
+    <t>Бинарные файлы</t>
+  </si>
+  <si>
+    <t>Чтение бинарного файла</t>
+  </si>
+  <si>
+    <t>Несколько значений в бинарном файле</t>
+  </si>
+  <si>
+    <t>Чтение данных из бинарного файла</t>
+  </si>
+  <si>
+    <t>Генераторы</t>
+  </si>
+  <si>
+    <t>Задание генератора</t>
+  </si>
+  <si>
+    <t>Получение значения элемента генератора</t>
+  </si>
+  <si>
+    <t>Генераторы и цикл for</t>
+  </si>
+  <si>
+    <t>Количество циклов for в генераторе</t>
+  </si>
+  <si>
+    <t>Генераторы в другие типы данных</t>
+  </si>
+  <si>
+    <t>Агрегирующие функции для генераторов</t>
+  </si>
+  <si>
+    <t>Число элементов генератора</t>
+  </si>
+  <si>
+    <t>Оператор yield</t>
+  </si>
+  <si>
+    <t>Функция map</t>
+  </si>
+  <si>
+    <t>Функция filter</t>
+  </si>
+  <si>
+    <t>Функция zip</t>
+  </si>
+  <si>
+    <t>Функция isinstance</t>
+  </si>
+  <si>
+    <t>Функция all</t>
+  </si>
+  <si>
+    <t>Функция any</t>
+  </si>
+  <si>
+    <t>Мануальное тестирование</t>
+  </si>
+  <si>
+    <t>Паттерн ААА</t>
+  </si>
+  <si>
+    <t>Функция reduce</t>
+  </si>
+  <si>
+    <t>Операторы match-case</t>
+  </si>
+  <si>
+    <t>Оператор assert</t>
+  </si>
+  <si>
+    <t>Автотесты в Python</t>
+  </si>
+  <si>
+    <t>Понятие TDD</t>
+  </si>
+  <si>
+    <t>Понятие фикстуры</t>
+  </si>
+  <si>
+    <t>Работа с временем, датами в Python</t>
+  </si>
+  <si>
+    <t>Работа с пседослучайными числами</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +1448,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +1483,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +1523,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +1563,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +1595,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +1745,3794 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="67.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>35</v>
+      </c>
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>37</v>
+      </c>
+      <c r="B31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>38</v>
+      </c>
+      <c r="B32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>39</v>
+      </c>
+      <c r="B33" s="1">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>41</v>
+      </c>
+      <c r="B35" s="1">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>42</v>
+      </c>
+      <c r="B36" s="1">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1">
+        <v>35</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44</v>
+      </c>
+      <c r="B38" s="1">
+        <v>36</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45</v>
+      </c>
+      <c r="B39" s="1">
+        <v>37</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>46</v>
+      </c>
+      <c r="B40" s="1">
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>47</v>
+      </c>
+      <c r="B41" s="1">
+        <v>39</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>48</v>
+      </c>
+      <c r="B42" s="1">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>49</v>
+      </c>
+      <c r="B43" s="1">
+        <v>41</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>50</v>
+      </c>
+      <c r="B44" s="1">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>51</v>
+      </c>
+      <c r="B45" s="1">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>52</v>
+      </c>
+      <c r="B46" s="1">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>53</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>54</v>
+      </c>
+      <c r="B48" s="1">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>55</v>
+      </c>
+      <c r="B49" s="1">
+        <v>47</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>56</v>
+      </c>
+      <c r="B50" s="1">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>57</v>
+      </c>
+      <c r="B51" s="1">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>58</v>
+      </c>
+      <c r="B52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>59</v>
+      </c>
+      <c r="B53" s="1">
+        <v>51</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F53" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>60</v>
+      </c>
+      <c r="B54" s="1">
+        <v>52</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>61</v>
+      </c>
+      <c r="B55" s="1">
+        <v>53</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>62</v>
+      </c>
+      <c r="B56" s="1">
+        <v>54</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>63</v>
+      </c>
+      <c r="B57" s="1">
+        <v>55</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F57" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>64</v>
+      </c>
+      <c r="B58" s="1">
+        <v>56</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F58" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>65</v>
+      </c>
+      <c r="B59" s="1">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>66</v>
+      </c>
+      <c r="B60" s="1">
+        <v>58</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>67</v>
+      </c>
+      <c r="B61" s="1">
+        <v>59</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F61" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>68</v>
+      </c>
+      <c r="B62" s="1">
+        <v>60</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>69</v>
+      </c>
+      <c r="B63" s="1">
+        <v>61</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>70</v>
+      </c>
+      <c r="B64" s="1">
+        <v>62</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F64" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>71</v>
+      </c>
+      <c r="B65" s="1">
+        <v>63</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F65" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>72</v>
+      </c>
+      <c r="B66" s="1">
+        <v>64</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F66" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>73</v>
+      </c>
+      <c r="B67" s="1">
+        <v>65</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F67" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>74</v>
+      </c>
+      <c r="B68" s="1">
+        <v>66</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>75</v>
+      </c>
+      <c r="B69" s="1">
+        <v>67</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F69" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>76</v>
+      </c>
+      <c r="B70" s="1">
+        <v>68</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F70" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>77</v>
+      </c>
+      <c r="B71" s="1">
+        <v>69</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>78</v>
+      </c>
+      <c r="B72" s="1">
+        <v>70</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F72" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>79</v>
+      </c>
+      <c r="B73" s="1">
+        <v>71</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F73" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>80</v>
+      </c>
+      <c r="B74" s="1">
+        <v>72</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F74" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>81</v>
+      </c>
+      <c r="B75" s="1">
+        <v>73</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F75" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>82</v>
+      </c>
+      <c r="B76" s="1">
+        <v>74</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>83</v>
+      </c>
+      <c r="B77" s="1">
+        <v>75</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F77" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>84</v>
+      </c>
+      <c r="B78" s="1">
+        <v>76</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F78" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>85</v>
+      </c>
+      <c r="B79" s="1">
+        <v>77</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F79" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>86</v>
+      </c>
+      <c r="B80" s="1">
+        <v>78</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>87</v>
+      </c>
+      <c r="B81" s="1">
+        <v>79</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F81" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>88</v>
+      </c>
+      <c r="B82" s="1">
+        <v>80</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F82" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>89</v>
+      </c>
+      <c r="B83" s="1">
+        <v>81</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F83" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>90</v>
+      </c>
+      <c r="B84" s="1">
+        <v>82</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F84" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>91</v>
+      </c>
+      <c r="B85" s="1">
+        <v>83</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F85" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>92</v>
+      </c>
+      <c r="B86" s="1">
+        <v>84</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F86" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>93</v>
+      </c>
+      <c r="B87" s="1">
+        <v>85</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F87" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>94</v>
+      </c>
+      <c r="B88" s="1">
+        <v>86</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F88" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>95</v>
+      </c>
+      <c r="B89" s="1">
+        <v>87</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F89" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>96</v>
+      </c>
+      <c r="B90" s="1">
+        <v>88</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F90" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>97</v>
+      </c>
+      <c r="B91" s="1">
+        <v>89</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F91" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>98</v>
+      </c>
+      <c r="B92" s="1">
+        <v>90</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F92" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>99</v>
+      </c>
+      <c r="B93" s="1">
+        <v>91</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F93" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>100</v>
+      </c>
+      <c r="B94" s="1">
+        <v>92</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F94" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>101</v>
+      </c>
+      <c r="B95" s="1">
+        <v>93</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F95" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>102</v>
+      </c>
+      <c r="B96" s="1">
+        <v>94</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F96" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>103</v>
+      </c>
+      <c r="B97" s="1">
+        <v>95</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F97" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>104</v>
+      </c>
+      <c r="B98" s="1">
+        <v>96</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F98" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>105</v>
+      </c>
+      <c r="B99" s="1">
+        <v>97</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F99" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>106</v>
+      </c>
+      <c r="B100" s="1">
+        <v>98</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F100" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>107</v>
+      </c>
+      <c r="B101" s="1">
+        <v>99</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F101" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>108</v>
+      </c>
+      <c r="B102" s="1">
+        <v>100</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F102" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>109</v>
+      </c>
+      <c r="B103" s="1">
+        <v>101</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F103" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>110</v>
+      </c>
+      <c r="B104" s="1">
+        <v>102</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F104" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>111</v>
+      </c>
+      <c r="B105" s="1">
+        <v>103</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F105" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>112</v>
+      </c>
+      <c r="B106" s="1">
+        <v>104</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F106" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>113</v>
+      </c>
+      <c r="B107" s="1">
+        <v>105</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F107" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>114</v>
+      </c>
+      <c r="B108" s="1">
+        <v>106</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F108" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>115</v>
+      </c>
+      <c r="B109" s="1">
+        <v>107</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F109" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>116</v>
+      </c>
+      <c r="B110" s="1">
+        <v>108</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F110" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>117</v>
+      </c>
+      <c r="B111" s="1">
+        <v>109</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F111" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>118</v>
+      </c>
+      <c r="B112" s="1">
+        <v>110</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F112" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>119</v>
+      </c>
+      <c r="B113" s="1">
+        <v>111</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F113" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>120</v>
+      </c>
+      <c r="B114" s="1">
+        <v>112</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F114" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>121</v>
+      </c>
+      <c r="B115" s="1">
+        <v>113</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F115" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>122</v>
+      </c>
+      <c r="B116" s="1">
+        <v>114</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F116" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>123</v>
+      </c>
+      <c r="B117" s="1">
+        <v>115</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F117" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>124</v>
+      </c>
+      <c r="B118" s="1">
+        <v>116</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F118" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>125</v>
+      </c>
+      <c r="B119" s="1">
+        <v>117</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F119" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>126</v>
+      </c>
+      <c r="B120" s="1">
+        <v>118</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F120" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>127</v>
+      </c>
+      <c r="B121" s="1">
+        <v>119</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F121" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>128</v>
+      </c>
+      <c r="B122" s="1">
+        <v>120</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F122" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>129</v>
+      </c>
+      <c r="B123" s="1">
+        <v>121</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F123" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>130</v>
+      </c>
+      <c r="B124" s="1">
+        <v>122</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F124" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>131</v>
+      </c>
+      <c r="B125" s="1">
+        <v>123</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F125" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>132</v>
+      </c>
+      <c r="B126" s="1">
+        <v>124</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F126" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>133</v>
+      </c>
+      <c r="B127" s="1">
+        <v>125</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F127" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>134</v>
+      </c>
+      <c r="B128" s="1">
+        <v>126</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F128" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>135</v>
+      </c>
+      <c r="B129" s="1">
+        <v>127</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F129" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>136</v>
+      </c>
+      <c r="B130" s="1">
+        <v>128</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F130" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>137</v>
+      </c>
+      <c r="B131" s="1">
+        <v>129</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F131" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>138</v>
+      </c>
+      <c r="B132" s="1">
+        <v>130</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F132" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>139</v>
+      </c>
+      <c r="B133" s="1">
+        <v>131</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F133" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>140</v>
+      </c>
+      <c r="B134" s="1">
+        <v>132</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F134" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>141</v>
+      </c>
+      <c r="B135" s="1">
+        <v>133</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F135" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>142</v>
+      </c>
+      <c r="B136" s="1">
+        <v>134</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F136" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>143</v>
+      </c>
+      <c r="B137" s="1">
+        <v>135</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F137" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>144</v>
+      </c>
+      <c r="B138" s="1">
+        <v>136</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F138" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>145</v>
+      </c>
+      <c r="B139" s="1">
+        <v>137</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F139" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>146</v>
+      </c>
+      <c r="B140" s="1">
+        <v>138</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F140" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>147</v>
+      </c>
+      <c r="B141" s="1">
+        <v>139</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F141" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>148</v>
+      </c>
+      <c r="B142" s="1">
+        <v>140</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F142" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>149</v>
+      </c>
+      <c r="B143" s="1">
+        <v>141</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F143" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>150</v>
+      </c>
+      <c r="B144" s="1">
+        <v>142</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F144" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>151</v>
+      </c>
+      <c r="B145" s="1">
+        <v>143</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F145" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>152</v>
+      </c>
+      <c r="B146" s="1">
+        <v>144</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F146" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>153</v>
+      </c>
+      <c r="B147" s="1">
+        <v>145</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F147" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>154</v>
+      </c>
+      <c r="B148" s="1">
+        <v>146</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F148" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>155</v>
+      </c>
+      <c r="B149" s="1">
+        <v>147</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F149" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>156</v>
+      </c>
+      <c r="B150" s="1">
+        <v>148</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F150" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>157</v>
+      </c>
+      <c r="B151" s="1">
+        <v>149</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F151" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>158</v>
+      </c>
+      <c r="B152" s="1">
+        <v>150</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F152" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>159</v>
+      </c>
+      <c r="B153" s="1">
+        <v>151</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F153" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>160</v>
+      </c>
+      <c r="B154" s="1">
+        <v>152</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F154" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>161</v>
+      </c>
+      <c r="B155" s="1">
+        <v>153</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F155" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>162</v>
+      </c>
+      <c r="B156" s="1">
+        <v>154</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F156" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>163</v>
+      </c>
+      <c r="B157" s="1">
+        <v>155</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F157" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>164</v>
+      </c>
+      <c r="B158" s="1">
+        <v>156</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F158" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>165</v>
+      </c>
+      <c r="B159" s="1">
+        <v>157</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F159" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>166</v>
+      </c>
+      <c r="B160" s="1">
+        <v>158</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F160" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>167</v>
+      </c>
+      <c r="B161" s="1">
+        <v>159</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F161" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>168</v>
+      </c>
+      <c r="B162" s="1">
+        <v>160</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F162" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>169</v>
+      </c>
+      <c r="B163" s="1">
+        <v>161</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F163" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>170</v>
+      </c>
+      <c r="B164" s="1">
+        <v>162</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F164" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>171</v>
+      </c>
+      <c r="B165" s="1">
+        <v>163</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F165" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>172</v>
+      </c>
+      <c r="B166" s="1">
+        <v>164</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F166" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>173</v>
+      </c>
+      <c r="B167" s="1">
+        <v>165</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F167" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>174</v>
+      </c>
+      <c r="B168" s="1">
+        <v>166</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F168" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>175</v>
+      </c>
+      <c r="B169" s="1">
+        <v>167</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F169" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>176</v>
+      </c>
+      <c r="B170" s="1">
+        <v>168</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F170" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>177</v>
+      </c>
+      <c r="B171" s="1">
+        <v>169</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F171" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>178</v>
+      </c>
+      <c r="B172" s="1">
+        <v>170</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F172" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>179</v>
+      </c>
+      <c r="B173" s="1">
+        <v>171</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F173" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>180</v>
+      </c>
+      <c r="B174" s="1">
+        <v>172</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F174" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>181</v>
+      </c>
+      <c r="B175" s="1">
+        <v>173</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F175" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>182</v>
+      </c>
+      <c r="B176" s="1">
+        <v>174</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F176" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>183</v>
+      </c>
+      <c r="B177" s="1">
+        <v>175</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F177" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>184</v>
+      </c>
+      <c r="B178" s="1">
+        <v>176</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F178" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>185</v>
+      </c>
+      <c r="B179" s="1">
+        <v>177</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F179" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>186</v>
+      </c>
+      <c r="B180" s="1">
+        <v>178</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F180" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>187</v>
+      </c>
+      <c r="B181" s="1">
+        <v>179</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F181" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>188</v>
+      </c>
+      <c r="B182" s="1">
+        <v>180</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F182" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>189</v>
+      </c>
+      <c r="B183" s="1">
+        <v>181</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F183" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>190</v>
+      </c>
+      <c r="B184" s="1">
+        <v>182</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F184" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>191</v>
+      </c>
+      <c r="B185" s="1">
+        <v>183</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F185" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>192</v>
+      </c>
+      <c r="B186" s="1">
+        <v>184</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F186" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>193</v>
+      </c>
+      <c r="B187" s="1">
+        <v>185</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F187" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>194</v>
+      </c>
+      <c r="B188" s="1">
+        <v>186</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F188" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>195</v>
+      </c>
+      <c r="B189" s="1">
+        <v>187</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F189" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>196</v>
+      </c>
+      <c r="B190" s="1">
+        <v>188</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F190" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>197</v>
+      </c>
+      <c r="B191" s="1">
+        <v>189</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F191" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>198</v>
+      </c>
+      <c r="B192" s="1">
+        <v>190</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F192" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>199</v>
+      </c>
+      <c r="B193" s="1">
+        <v>191</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F193" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>200</v>
+      </c>
+      <c r="B194" s="1">
+        <v>192</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F194" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>201</v>
+      </c>
+      <c r="B195" s="1">
+        <v>193</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F195" s="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>202</v>
+      </c>
+      <c r="B196" s="1">
+        <v>194</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F196" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>203</v>
+      </c>
+      <c r="B197" s="1">
+        <v>195</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F197" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>204</v>
+      </c>
+      <c r="B198" s="1">
+        <v>196</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F198" s="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>205</v>
+      </c>
+      <c r="B199" s="1">
+        <v>197</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F199" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>206</v>
+      </c>
+      <c r="B200" s="1">
+        <v>198</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F200" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>207</v>
+      </c>
+      <c r="B201" s="1">
+        <v>199</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F201" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>208</v>
+      </c>
+      <c r="B202" s="1">
+        <v>200</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F202" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>209</v>
+      </c>
+      <c r="B203" s="1">
+        <v>201</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F203" s="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>210</v>
+      </c>
+      <c r="B204" s="1">
+        <v>202</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F204" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>211</v>
+      </c>
+      <c r="B205" s="1">
+        <v>203</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F205" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>212</v>
+      </c>
+      <c r="B206" s="1">
+        <v>204</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F206" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>213</v>
+      </c>
+      <c r="B207" s="1">
+        <v>205</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F207" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>214</v>
+      </c>
+      <c r="B208" s="1">
+        <v>206</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F208" s="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>215</v>
+      </c>
+      <c r="B209" s="1">
+        <v>207</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F209" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>216</v>
+      </c>
+      <c r="B210" s="1">
+        <v>208</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F210" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>217</v>
+      </c>
+      <c r="B211" s="1">
+        <v>209</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F211" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>218</v>
+      </c>
+      <c r="B212" s="1">
+        <v>210</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F212" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>219</v>
+      </c>
+      <c r="B213" s="1">
+        <v>211</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F213" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>220</v>
+      </c>
+      <c r="B214" s="1">
+        <v>212</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F214" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>221</v>
+      </c>
+      <c r="B215" s="1">
+        <v>213</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F215" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>222</v>
+      </c>
+      <c r="B216" s="1">
+        <v>214</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F216" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>223</v>
+      </c>
+      <c r="B217" s="1">
+        <v>215</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F217" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>224</v>
+      </c>
+      <c r="B218" s="1">
+        <v>216</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F218" s="1">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>